--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3978766.094481649</v>
+        <v>3976878.512965246</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>430915.4288295592</v>
+        <v>683332.8030014335</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7672227.268367485</v>
+        <v>7672227.268367486</v>
       </c>
     </row>
     <row r="11">
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>332.2673020532835</v>
       </c>
       <c r="H2" t="n">
-        <v>279.2429650745943</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>27.37301815329025</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>189.5968436493439</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.625202343652</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>192.0202038429617</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>83.59830597394826</v>
       </c>
       <c r="V7" t="n">
-        <v>169.0167291702124</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1136,7 +1136,7 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>26.53815412835747</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>127.8819313525579</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.389005322401447</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1357,7 +1357,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051976</v>
       </c>
       <c r="T11" t="n">
-        <v>208.4827883385028</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>176.2557199174811</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.5269768002177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,16 +1762,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,7 +1780,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>89.38210601524966</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,22 +1810,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>84.87107729302076</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>128.8176033496194</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>52.73350969966344</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2056,13 +2056,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,25 +2239,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>14.40551067716507</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>52.36719038693394</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2299,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>9.541421886209349</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,25 +2521,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>278.5651976460225</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274165</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2609,7 +2609,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>2.259516940890817</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
@@ -2773,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>52.25722329313224</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.62872355338</v>
+        <v>124.6287235533803</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700709</v>
       </c>
       <c r="D31" t="n">
-        <v>41.74534664123135</v>
+        <v>93.41221638965538</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801192</v>
+        <v>91.2307060180122</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348203</v>
+        <v>111.2903118348206</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897887</v>
+        <v>46.20579632119777</v>
       </c>
       <c r="I31" t="n">
-        <v>55.21598883571473</v>
+        <v>55.215988835715</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523553</v>
+        <v>54.76109577523581</v>
       </c>
       <c r="S31" t="n">
-        <v>142.717553355046</v>
+        <v>142.7175533550463</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>166.3443044298323</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700204</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952707</v>
+        <v>196.934386695271</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080337</v>
+        <v>231.319741708034</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604799</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235375</v>
+        <v>163.3813967235378</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,10 +3551,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
-        <v>208.482788338503</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U38" t="n">
         <v>251.078595249801</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463134</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1658.435818966735</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C2" t="n">
-        <v>1658.435818966735</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D2" t="n">
-        <v>1300.170120359985</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="E2" t="n">
-        <v>914.3818677617403</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="F2" t="n">
-        <v>503.3959629721327</v>
+        <v>870.227215216831</v>
       </c>
       <c r="G2" t="n">
-        <v>489.4725589107236</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,19 +4328,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>2048.575150942547</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y2" t="n">
-        <v>1658.435818966735</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4416,40 +4416,40 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="U4" t="n">
-        <v>536.6170209242687</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="V4" t="n">
-        <v>281.9325327183818</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="W4" t="n">
-        <v>281.9325327183818</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>81.59249510651622</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4541,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>818.8658378359718</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="C5" t="n">
-        <v>818.8658378359718</v>
+        <v>837.1179892781316</v>
       </c>
       <c r="D5" t="n">
-        <v>460.6001392292213</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>74.81188663097703</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
         <v>67.86638588177355</v>
@@ -4565,10 +4565,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224075</v>
@@ -4577,7 +4577,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2284.554622128708</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>1953.491734785137</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1600.723079515023</v>
       </c>
       <c r="X5" t="n">
-        <v>1112.426648284105</v>
+        <v>1227.257321253943</v>
       </c>
       <c r="Y5" t="n">
-        <v>1112.426648284105</v>
+        <v>837.1179892781316</v>
       </c>
     </row>
     <row r="6">
@@ -4638,7 +4638,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4662,7 +4662,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2627.754532504893</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
@@ -4729,34 +4729,34 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>365.6939024587812</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>138.3857151273829</v>
       </c>
       <c r="U7" t="n">
-        <v>224.6669506791649</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
         <v>53.94298182036445</v>
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="C8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1749.341643278937</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2670.342874726952</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2339.279987383381</v>
       </c>
       <c r="W8" t="n">
-        <v>2512.946733515829</v>
+        <v>1986.511332113267</v>
       </c>
       <c r="X8" t="n">
-        <v>2139.480975254749</v>
+        <v>1613.045573852188</v>
       </c>
       <c r="Y8" t="n">
-        <v>1749.341643278937</v>
+        <v>1222.906241876376</v>
       </c>
     </row>
     <row r="9">
@@ -4899,7 +4899,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -5005,7 +5005,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.3364050629041</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,49 +5024,49 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
@@ -5106,28 +5106,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G12" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L12" t="n">
-        <v>1288.32563221405</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M12" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028587</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028587</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028587</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028587</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5206,7 +5206,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
@@ -5215,34 +5215,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1209.805086394999</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0196711845051</v>
       </c>
       <c r="U13" t="n">
-        <v>986.0022165609665</v>
+        <v>986.0196711845051</v>
       </c>
       <c r="V13" t="n">
-        <v>731.3177283550797</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="W13" t="n">
-        <v>441.9005583181191</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="X13" t="n">
-        <v>213.9110074201018</v>
+        <v>731.3351829786183</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028587</v>
+        <v>731.3351829786183</v>
       </c>
     </row>
     <row r="14">
@@ -5273,52 +5273,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5343,40 +5343,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L15" t="n">
-        <v>1288.32563221405</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M15" t="n">
-        <v>2056.693778606511</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>692.5547804049819</v>
+        <v>503.3281774570624</v>
       </c>
       <c r="C16" t="n">
-        <v>692.5547804049819</v>
+        <v>334.3919945291555</v>
       </c>
       <c r="D16" t="n">
-        <v>542.4381409926461</v>
+        <v>334.3919945291555</v>
       </c>
       <c r="E16" t="n">
-        <v>394.525047410253</v>
+        <v>334.3919945291555</v>
       </c>
       <c r="F16" t="n">
-        <v>247.6350999123426</v>
+        <v>187.5020470312451</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>187.5020470312451</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T16" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U16" t="n">
-        <v>1187.92115703528</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V16" t="n">
-        <v>1187.92115703528</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W16" t="n">
-        <v>1102.192796133239</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="X16" t="n">
-        <v>874.2032452352216</v>
+        <v>503.3281774570623</v>
       </c>
       <c r="Y16" t="n">
-        <v>874.2032452352216</v>
+        <v>503.3281774570623</v>
       </c>
     </row>
     <row r="17">
@@ -5510,52 +5510,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>97.21709146028587</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L18" t="n">
-        <v>97.21709146028587</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M18" t="n">
-        <v>865.5852378527475</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N18" t="n">
-        <v>1669.996816116898</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
-        <v>2339.460577419557</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>804.3537517307267</v>
+        <v>619.9540936663865</v>
       </c>
       <c r="C19" t="n">
-        <v>804.3537517307267</v>
+        <v>451.0179107384796</v>
       </c>
       <c r="D19" t="n">
-        <v>804.3537517307267</v>
+        <v>300.901271326144</v>
       </c>
       <c r="E19" t="n">
-        <v>674.2349604684848</v>
+        <v>300.901271326144</v>
       </c>
       <c r="F19" t="n">
-        <v>527.3450129705744</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>986.0022165609664</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="V19" t="n">
-        <v>986.0022165609664</v>
+        <v>909.371263703347</v>
       </c>
       <c r="W19" t="n">
-        <v>986.0022165609664</v>
+        <v>619.9540936663865</v>
       </c>
       <c r="X19" t="n">
-        <v>986.0022165609664</v>
+        <v>619.9540936663865</v>
       </c>
       <c r="Y19" t="n">
-        <v>986.0022165609664</v>
+        <v>619.9540936663865</v>
       </c>
     </row>
     <row r="20">
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,16 +5762,16 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014293</v>
@@ -5832,25 +5832,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K21" t="n">
-        <v>222.5746515181233</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L21" t="n">
-        <v>452.5377573864724</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>772.8730769161742</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N21" t="n">
-        <v>1128.069692924718</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>688.7859813545101</v>
+        <v>893.5623804327215</v>
       </c>
       <c r="C22" t="n">
-        <v>674.2349604684848</v>
+        <v>724.6261975048146</v>
       </c>
       <c r="D22" t="n">
-        <v>674.2349604684848</v>
+        <v>671.7300455988211</v>
       </c>
       <c r="E22" t="n">
-        <v>674.2349604684848</v>
+        <v>523.816952016428</v>
       </c>
       <c r="F22" t="n">
-        <v>527.3450129705744</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>208.7516828383383</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
         <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="U22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.841167119728</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="W22" t="n">
-        <v>1098.423997082767</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="X22" t="n">
-        <v>870.4344461847498</v>
+        <v>1075.210845262961</v>
       </c>
       <c r="Y22" t="n">
-        <v>870.4344461847498</v>
+        <v>1075.210845262961</v>
       </c>
     </row>
     <row r="23">
@@ -5975,10 +5975,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -6002,22 +6002,22 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
         <v>4262.3578574653</v>
@@ -6054,13 +6054,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
@@ -6069,25 +6069,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K24" t="n">
-        <v>222.5746515181232</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L24" t="n">
-        <v>222.5746515181232</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N24" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>403.8614782555916</v>
+        <v>734.8632439327641</v>
       </c>
       <c r="C25" t="n">
-        <v>403.8614782555916</v>
+        <v>565.9270610048573</v>
       </c>
       <c r="D25" t="n">
-        <v>253.7448388432559</v>
+        <v>415.8104215925216</v>
       </c>
       <c r="E25" t="n">
-        <v>244.1070389581962</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>415.8104215925217</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123425</v>
       </c>
       <c r="H25" t="n">
         <v>97.21709146028587</v>
@@ -6145,16 +6145,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799368</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T25" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U25" t="n">
-        <v>874.927113122792</v>
+        <v>1217.537283036668</v>
       </c>
       <c r="V25" t="n">
-        <v>874.927113122792</v>
+        <v>962.8527948307815</v>
       </c>
       <c r="W25" t="n">
-        <v>585.5099430858313</v>
+        <v>962.8527948307815</v>
       </c>
       <c r="X25" t="n">
-        <v>585.5099430858313</v>
+        <v>734.8632439327641</v>
       </c>
       <c r="Y25" t="n">
-        <v>585.5099430858313</v>
+        <v>734.8632439327641</v>
       </c>
     </row>
     <row r="26">
@@ -6203,31 +6203,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155897</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080548</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822471</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
@@ -6257,13 +6257,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6303,28 +6303,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181233</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L27" t="n">
-        <v>452.5377573864724</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>772.8730769161742</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N27" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>677.9999391053082</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="C28" t="n">
-        <v>509.0637561774013</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="D28" t="n">
-        <v>358.9471167650655</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E28" t="n">
-        <v>211.0340231826724</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F28" t="n">
-        <v>208.7516828383384</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028587</v>
@@ -6388,10 +6388,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
         <v>1049.608084974667</v>
@@ -6400,34 +6400,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S28" t="n">
-        <v>1187.92115703528</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T28" t="n">
-        <v>1187.92115703528</v>
+        <v>1275.130855347409</v>
       </c>
       <c r="U28" t="n">
-        <v>898.7925182488383</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="V28" t="n">
-        <v>898.7925182488383</v>
+        <v>986.0022165609669</v>
       </c>
       <c r="W28" t="n">
-        <v>898.7925182488383</v>
+        <v>696.5850465240062</v>
       </c>
       <c r="X28" t="n">
-        <v>898.7925182488383</v>
+        <v>468.5954956259889</v>
       </c>
       <c r="Y28" t="n">
-        <v>677.9999391053082</v>
+        <v>415.8104215925219</v>
       </c>
     </row>
     <row r="29">
@@ -6440,19 +6440,19 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6461,46 +6461,46 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
         <v>3205.060556590537</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>436.896710962637</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>323.6581146605669</v>
+        <v>1819.161927111987</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>607.5569798833449</v>
+        <v>611.7611155708634</v>
       </c>
       <c r="C31" t="n">
-        <v>494.3816622368089</v>
+        <v>498.5857979243272</v>
       </c>
       <c r="D31" t="n">
-        <v>452.2146454274843</v>
+        <v>404.2300237933621</v>
       </c>
       <c r="E31" t="n">
-        <v>360.0624171264616</v>
+        <v>312.0777954923396</v>
       </c>
       <c r="F31" t="n">
-        <v>360.0624171264616</v>
+        <v>312.0777954923396</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276531</v>
+        <v>199.6633390935311</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569674</v>
+        <v>152.9908175569677</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864674</v>
+        <v>164.2510079864672</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933505</v>
+        <v>369.08763629335</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667514</v>
+        <v>671.4509053667507</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962059</v>
+        <v>997.668872196205</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286025</v>
+        <v>1322.864205286024</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353692</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056076</v>
+        <v>1936.126063056074</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.81182489927</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096193</v>
       </c>
       <c r="T31" t="n">
-        <v>1736.652680096195</v>
+        <v>1568.628130167069</v>
       </c>
       <c r="U31" t="n">
-        <v>1503.284906591125</v>
+        <v>1335.260356661998</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.361283666609</v>
+        <v>1136.336733737482</v>
       </c>
       <c r="W31" t="n">
-        <v>1070.704978911019</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="X31" t="n">
-        <v>898.4762932943727</v>
+        <v>902.6804289818919</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4445794322136</v>
+        <v>737.6487151197324</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6689,46 +6689,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
         <v>4262.3578574653</v>
@@ -6765,40 +6765,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.325632214049</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605669</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,55 +6832,55 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108315</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229656</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850671</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083192</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504503</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.529509210312</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649682</v>
       </c>
       <c r="M34" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860495</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.186490350128</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384655</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S34" t="n">
         <v>1865.165908942115</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771662</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025261</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859415</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
-        <v>1083.430560862495</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045191</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010301</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6914,28 +6914,28 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K35" t="n">
         <v>889.2841917514085</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>463.2137177573978</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>783.5490372870996</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108323</v>
       </c>
       <c r="C37" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229664</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506723</v>
+        <v>478.0475988506718</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083198</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504505</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649691</v>
@@ -7117,10 +7117,10 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
         <v>1710.200584771663</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010309</v>
       </c>
     </row>
     <row r="38">
@@ -7169,22 +7169,22 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
         <v>3889.732883643323</v>
@@ -7196,10 +7196,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
@@ -7208,7 +7208,7 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
         <v>3578.526314851616</v>
@@ -7248,28 +7248,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>263.5382936126482</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>794.1790493843997</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229666</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083198</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103121</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982965</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7409,19 +7409,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
         <v>3889.732883643324</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7491,25 +7491,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>323.6581146605669</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6581146605669</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605669</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229665</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F43" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103126</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982969</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7570,16 +7570,16 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N43" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O43" t="n">
         <v>1688.186490350129</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="44">
@@ -7634,43 +7634,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O44" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7722,31 +7722,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
-        <v>2401.214434244129</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2401.214434244129</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103124</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -9243,10 +9243,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9656,7 +9656,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>212.314990659903</v>
       </c>
       <c r="R23" t="n">
         <v>65.71641987298243</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>244.2385421467089</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298197</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,28 +10191,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>370.8623401849284</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10428,28 +10428,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>370.8623401849285</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,10 +10662,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10899,13 +10899,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10914,16 +10914,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11136,31 +11136,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>321.7987081714841</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11373,7 +11373,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11391,10 +11391,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>277.746630163199</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23416,19 +23416,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>21.6650900661221</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>103.0576765518771</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,25 +23650,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>59.53172235228641</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,22 +23698,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>201.6519210435702</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>17.61635929694973</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>92.68753832326774</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633775</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -23944,13 +23944,13 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -24127,13 +24127,13 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>152.8413104214628</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>96.24828263127836</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037927</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -24187,10 +24187,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>136.8925407603598</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>110.4192454642719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,25 +24409,25 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>7.672154752554851</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24601,25 +24601,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>143.1615310820404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>166.3274300589625</v>
       </c>
     </row>
     <row r="29">
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>51.66686974842375</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437399</v>
+        <v>90.21779139437427</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>47.50477541778154</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>166.344304429832</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>170.5063987604802</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>645197.9485672198</v>
+        <v>645197.9485672199</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671256.5266196959</v>
+        <v>671256.5266196958</v>
       </c>
     </row>
     <row r="12">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="C2" t="n">
         <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
         <v>723403.7605147612</v>
       </c>
       <c r="F2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147614</v>
       </c>
       <c r="G2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147611</v>
       </c>
       <c r="H2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="I2" t="n">
-        <v>723403.7605147613</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="J2" t="n">
-        <v>723403.760514761</v>
+        <v>723403.7605147612</v>
       </c>
       <c r="K2" t="n">
-        <v>752620.9540887488</v>
+        <v>752620.9540887491</v>
       </c>
       <c r="L2" t="n">
-        <v>759463.637124461</v>
+        <v>759463.6371244611</v>
       </c>
       <c r="M2" t="n">
-        <v>759463.6371244608</v>
+        <v>759463.6371244611</v>
       </c>
       <c r="N2" t="n">
         <v>759463.637124461</v>
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.6053028458</v>
+        <v>44162.60530284557</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086671</v>
+        <v>10342.90680086669</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284582</v>
+        <v>44162.60530284556</v>
       </c>
     </row>
     <row r="4">
@@ -26418,40 +26418,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905759262</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905759315</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758901</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758412</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758286</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758436</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758513</v>
-      </c>
-      <c r="H4" t="n">
-        <v>787.7936905758411</v>
-      </c>
-      <c r="I4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758371</v>
-      </c>
       <c r="K4" t="n">
-        <v>18952.41620477245</v>
+        <v>18952.41620477237</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189629</v>
+        <v>23206.58093189638</v>
       </c>
       <c r="O4" t="n">
         <v>23206.58093189634</v>
@@ -26476,40 +26476,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="K5" t="n">
-        <v>96628.20853022282</v>
+        <v>96628.20853022279</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
     </row>
     <row r="6">
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-52422.45933411046</v>
+        <v>-52422.45933411081</v>
       </c>
       <c r="C6" t="n">
         <v>537545.4198804338</v>
@@ -26528,31 +26528,31 @@
         <v>537545.4198804338</v>
       </c>
       <c r="E6" t="n">
-        <v>105468.6043985725</v>
+        <v>105371.1452726004</v>
       </c>
       <c r="F6" t="n">
-        <v>630628.6408754688</v>
+        <v>630531.1817494967</v>
       </c>
       <c r="G6" t="n">
-        <v>630628.6408754688</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="H6" t="n">
-        <v>630628.6408754688</v>
+        <v>630531.1817494965</v>
       </c>
       <c r="I6" t="n">
-        <v>630628.6408754688</v>
+        <v>630531.1817494966</v>
       </c>
       <c r="J6" t="n">
-        <v>454205.4216828755</v>
+        <v>454107.9625569035</v>
       </c>
       <c r="K6" t="n">
-        <v>592877.7240509077</v>
+        <v>592859.230312974</v>
       </c>
       <c r="L6" t="n">
-        <v>628199.0435716725</v>
+        <v>628199.0435716726</v>
       </c>
       <c r="M6" t="n">
-        <v>503740.9351387019</v>
+        <v>503740.9351387022</v>
       </c>
       <c r="N6" t="n">
         <v>638541.9503725392</v>
@@ -26561,7 +26561,7 @@
         <v>638541.9503725392</v>
       </c>
       <c r="P6" t="n">
-        <v>594379.3450696935</v>
+        <v>594379.3450696938</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964067</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="O2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26735,49 +26735,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108338</v>
+        <v>12.9286335010837</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855727</v>
+        <v>55.20325662855695</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26975,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.726472087276275e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,19 +27382,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>81.51686796751153</v>
       </c>
       <c r="H2" t="n">
-        <v>44.67980768976287</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>3.481659405224491e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27558,7 +27558,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>17.82694103524674</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,19 +27579,19 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>96.68503059263386</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27600,7 +27600,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.10863931982857</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27622,10 +27622,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -27670,7 +27670,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>59.20396366532759</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>202.6835682680295</v>
       </c>
       <c r="V7" t="n">
-        <v>83.12091415361559</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27856,7 +27856,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>27.94024844645425</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27910,10 +27910,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>221.3590373648551</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.4429748595358</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,13 +28026,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>96.44405126592675</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28077,7 +28077,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28138,10 +28138,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="T11" t="n">
-        <v>-5.86741080007012e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>-3.116189327207012e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29329,7 +29329,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>-7.105427357601002e-13</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -29560,7 +29560,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855726</v>
+        <v>55.20325662855696</v>
       </c>
     </row>
     <row r="32">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="38">
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-1.051603248924948e-12</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31136,7 +31136,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>86.43447689993462</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>139.4326257134866</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958058</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>212.6272478467034</v>
       </c>
       <c r="N12" t="n">
-        <v>224.6051223555648</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -31865,10 +31865,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,19 +32075,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L15" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>213.8677363986961</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -32099,13 +32099,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,37 +32312,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>249.7780505767166</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>21.66149467939451</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,34 +32546,34 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>129.3623873097335</v>
       </c>
       <c r="N21" t="n">
-        <v>10.78379835447009</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32701,7 +32701,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,31 +32710,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32783,31 +32783,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>380.6284621420183</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,7 +32874,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32938,7 +32938,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
         <v>128.6967545176652</v>
@@ -32947,31 +32947,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33020,31 +33020,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>10.78379835447009</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,7 +33111,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
         <v>229.1447054263751</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176652</v>
@@ -33184,31 +33184,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L29" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33257,31 +33257,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>48.48571443651653</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,7 +33348,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N31" t="n">
         <v>229.1447054263751</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,16 +33436,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,16 +33646,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33664,7 +33664,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33673,16 +33673,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,7 +33725,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33734,37 +33734,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>137.4075963926898</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33825,7 +33825,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,16 +33910,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>212.429733577828</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,16 +34138,16 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540898</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>102.1045082246905</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,16 +34384,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34469,13 +34469,13 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34784,19 +34784,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.0055067279162</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35024,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>323.9209869390935</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>536.198277674685</v>
       </c>
       <c r="N12" t="n">
-        <v>572.6057846157851</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L15" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>561.8683986589164</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35747,7 +35747,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,13 +35802,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
         <v>274.3098411789725</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>573.3490804046982</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>206.1498559050014</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,13 +36039,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556557</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>452.9334171377151</v>
       </c>
       <c r="N21" t="n">
-        <v>358.7844606146903</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36361,25 +36361,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502032</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,28 +36437,28 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>102.1045082246905</v>
+        <v>704.1994919699999</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556559</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056038</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.237351520603</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118009</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36598,25 +36598,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>358.7844606146903</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,19 +36750,19 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36771,7 +36771,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36835,25 +36835,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>175.1095124747361</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M30" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412279</v>
+        <v>67.71102679412252</v>
       </c>
       <c r="K31" t="n">
-        <v>206.9056851584678</v>
+        <v>206.9056851584675</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084858</v>
+        <v>305.4174435084855</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075298</v>
+        <v>329.5130978075295</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341609</v>
+        <v>328.4801344341607</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.4406081491599</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403578</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043202</v>
+        <v>94.42895660043175</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>228.7283062629101</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37306,13 +37306,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>369.6935619162747</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>536.0007634058096</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37780,19 +37780,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951484</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37859,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>228.7283062629101</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N43" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O43" t="n">
         <v>304.3692416502435</v>
@@ -38017,13 +38017,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
@@ -38032,13 +38032,13 @@
         <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109137</v>
       </c>
       <c r="Q44" t="n">
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>415.0406756005178</v>
@@ -38102,22 +38102,22 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>348.0006622602202</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>143.7722227488687</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,10 +38184,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
         <v>246.5154907414414</v>
